--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_8_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_8_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>190743.9641796239</v>
+        <v>260459.9868477282</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111705</v>
+        <v>6495115.446408026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729602</v>
+        <v>340528.8729729601</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10176551.46286197</v>
+        <v>10297238.97812853</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>16.8201079258493</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
@@ -671,7 +671,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>14.90018718295051</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>15.51865349211907</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>16.8201079258493</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>16.8201079258493</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>99.94095636824467</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>16.8201079258493</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>14.81515106108805</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>16.8201079258493</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>16.8201079258493</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>14.81515106108805</v>
+        <v>255.7314035889083</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>191.6285251201197</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>231.347454323146</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>231.347454323146</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>231.347454323146</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>193.4752908436799</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>16.09199293250372</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>144.948846514312</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>136.8665082956382</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>180.6077930059088</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>121.6837371317952</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>355.2053536288544</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>41.10855843975177</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1275,7 +1275,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1300,10 +1300,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>42.9175012012371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D11" t="n">
-        <v>137.9235671458071</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249225</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651693</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976324</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517074</v>
+        <v>54.34255030734803</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291331</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U11" t="n">
-        <v>216.9690424221582</v>
+        <v>223.3441920743354</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159573</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552563</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518102</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.406461920464</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C13" t="n">
-        <v>65.65485999358431</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>126.7540034815695</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F13" t="n">
-        <v>125.4639702295878</v>
+        <v>1.366789237619757</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.5905362416711</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042751</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T13" t="n">
-        <v>199.6324072321381</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784103</v>
+        <v>248.8244712305875</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651693</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H14" t="n">
-        <v>270.2785679976324</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I14" t="n">
-        <v>19.82821030727412</v>
+        <v>54.34255030734806</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291331</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T14" t="n">
-        <v>182.4635748116829</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221582</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159573</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552563</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518102</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.406461920464</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291771</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C16" t="n">
-        <v>87.05945889653913</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627852</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.27429639260484</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T16" t="n">
-        <v>199.6324072321381</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4493215784103</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>233.6260432089464</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179866</v>
+        <v>161.7947638444235</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753965</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334012</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G17" t="n">
-        <v>339.9575932736481</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H17" t="n">
-        <v>243.1160044061111</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364949</v>
+        <v>54.34255030734806</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139206</v>
+        <v>102.7825697050904</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201617</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306369</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V17" t="n">
-        <v>281.655771124436</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W17" t="n">
-        <v>315.2392898637351</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602889</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289427</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376559</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214526</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787099</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791564</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.30140663806657</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014983</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426902</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890626</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464408</v>
+        <v>45.23755208613466</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U19" t="n">
-        <v>215.286757986889</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174243</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537663</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264654</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364944</v>
+        <v>54.34255030734806</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139202</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201616</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>60.35063645594295</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787095</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791559</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806652</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.42797265014978</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426898</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>374.973273119095</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>374.877650031113</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>369.2735958591205</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>379.0511185795227</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364944</v>
+        <v>54.34255030734803</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139202</v>
+        <v>102.7825697050906</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201616</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>223.3441920743354</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787095</v>
+        <v>126.7540034815695</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791559</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806652</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.42797265014978</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426898</v>
+        <v>84.03689068796757</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>248.8244712305875</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>54.64579213772353</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>48.26750808166982</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2770,7 +2770,7 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>70.24118249416446</v>
       </c>
       <c r="W28" t="n">
         <v>246.7800261198764</v>
@@ -2779,7 +2779,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
         <v>190.4854774862718</v>
@@ -2950,25 +2950,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>58.34823981520658</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>23.90253786969295</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>341.3399367874144</v>
@@ -3035,7 +3035,7 @@
         <v>335.7358826154219</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>352.1366999334012</v>
@@ -3092,7 +3092,7 @@
         <v>315.239289863735</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>361.4407561044623</v>
       </c>
       <c r="Y32" t="n">
         <v>332.2438983289427</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C38" t="n">
         <v>341.3399367874144</v>
       </c>
       <c r="D38" t="n">
-        <v>335.7358826154219</v>
+        <v>335.735882615422</v>
       </c>
       <c r="E38" t="n">
         <v>345.5134053358241</v>
       </c>
       <c r="F38" t="n">
-        <v>352.1366999334011</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G38" t="n">
-        <v>339.9575932736479</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H38" t="n">
-        <v>243.116004406111</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364943</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.244856461392</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T38" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306368</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V38" t="n">
         <v>281.655771124436</v>
       </c>
       <c r="W38" t="n">
-        <v>315.2392898637349</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X38" t="n">
-        <v>331.9535558602888</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y38" t="n">
         <v>332.2438983289427</v>
@@ -3664,22 +3664,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787094</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791558</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30140663806651</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G40" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014977</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426897</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890621</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S40" t="n">
         <v>119.8444424464407</v>
@@ -3715,10 +3715,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U40" t="n">
-        <v>215.2867579868889</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V40" t="n">
-        <v>206.4634796174251</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W40" t="n">
         <v>211.5955598537662</v>
@@ -3995,7 +3995,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80483706364947</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.24485646139205</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T44" t="n">
         <v>155.3010112201617</v>
@@ -4037,7 +4037,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W44" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X44" t="n">
         <v>331.9535558602889</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.1393013376559</v>
+        <v>121.1393013376558</v>
       </c>
       <c r="C46" t="n">
-        <v>104.6990307214526</v>
+        <v>104.6990307214525</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21629023787098</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E46" t="n">
-        <v>94.61829898791562</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F46" t="n">
-        <v>98.30140663806655</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G46" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H46" t="n">
-        <v>83.42797265014981</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426901</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.73658314890625</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S46" t="n">
         <v>119.8444424464407</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.09965607931179</v>
+        <v>72.64561252564368</v>
       </c>
       <c r="C2" t="n">
-        <v>44.1096480734034</v>
+        <v>66.56142587931787</v>
       </c>
       <c r="D2" t="n">
-        <v>43.68612220686801</v>
+        <v>66.13790001278247</v>
       </c>
       <c r="E2" t="n">
-        <v>33.38631076416877</v>
+        <v>55.83808857008324</v>
       </c>
       <c r="F2" t="n">
-        <v>16.39630275826038</v>
+        <v>38.84808056417485</v>
       </c>
       <c r="G2" t="n">
-        <v>1.345608634067944</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J2" t="n">
-        <v>17.99751548065875</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="K2" t="n">
-        <v>17.99751548065875</v>
+        <v>456.8926816528735</v>
       </c>
       <c r="L2" t="n">
-        <v>17.99751548065875</v>
+        <v>456.8926816528735</v>
       </c>
       <c r="M2" t="n">
-        <v>33.97661801021559</v>
+        <v>456.8926816528735</v>
       </c>
       <c r="N2" t="n">
-        <v>50.62852485680639</v>
+        <v>500.8274100747735</v>
       </c>
       <c r="O2" t="n">
-        <v>50.62852485680639</v>
+        <v>923.559891230236</v>
       </c>
       <c r="P2" t="n">
-        <v>50.62852485680639</v>
+        <v>1346.292372385698</v>
       </c>
       <c r="Q2" t="n">
-        <v>67.2804317033972</v>
+        <v>1667.45337918099</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>1708.010024870555</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>1692.334617302758</v>
       </c>
       <c r="T2" t="n">
-        <v>67.2804317033972</v>
+        <v>1470.128133249617</v>
       </c>
       <c r="U2" t="n">
-        <v>67.2804317033972</v>
+        <v>1213.067641509127</v>
       </c>
       <c r="V2" t="n">
-        <v>67.2804317033972</v>
+        <v>863.230086845608</v>
       </c>
       <c r="W2" t="n">
-        <v>67.2804317033972</v>
+        <v>479.4697859807766</v>
       </c>
       <c r="X2" t="n">
-        <v>67.2804317033972</v>
+        <v>78.8263881497291</v>
       </c>
       <c r="Y2" t="n">
-        <v>67.2804317033972</v>
+        <v>78.8263881497291</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.32562464588472</v>
+        <v>596.093884603338</v>
       </c>
       <c r="C3" t="n">
-        <v>35.32562464588472</v>
+        <v>462.0988133522836</v>
       </c>
       <c r="D3" t="n">
-        <v>35.32562464588472</v>
+        <v>462.0988133522836</v>
       </c>
       <c r="E3" t="n">
-        <v>35.32562464588472</v>
+        <v>341.6059973446116</v>
       </c>
       <c r="F3" t="n">
-        <v>35.32562464588472</v>
+        <v>232.6461175271162</v>
       </c>
       <c r="G3" t="n">
-        <v>35.32562464588472</v>
+        <v>125.6560048414549</v>
       </c>
       <c r="H3" t="n">
-        <v>18.33561663997633</v>
+        <v>54.90879187717093</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J3" t="n">
-        <v>17.99751548065875</v>
+        <v>226.9730580600443</v>
       </c>
       <c r="K3" t="n">
-        <v>17.99751548065875</v>
+        <v>649.7055392155067</v>
       </c>
       <c r="L3" t="n">
-        <v>17.99751548065875</v>
+        <v>905.8735596684794</v>
       </c>
       <c r="M3" t="n">
-        <v>17.99751548065875</v>
+        <v>905.8735596684794</v>
       </c>
       <c r="N3" t="n">
-        <v>17.99751548065875</v>
+        <v>905.8735596684794</v>
       </c>
       <c r="O3" t="n">
-        <v>17.99751548065875</v>
+        <v>905.8735596684794</v>
       </c>
       <c r="P3" t="n">
-        <v>33.97661801021559</v>
+        <v>1328.606040823942</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.62852485680639</v>
+        <v>1678.450505507925</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>1708.010024870555</v>
       </c>
       <c r="S3" t="n">
-        <v>67.2804317033972</v>
+        <v>1600.020014984864</v>
       </c>
       <c r="T3" t="n">
-        <v>67.2804317033972</v>
+        <v>1600.020014984864</v>
       </c>
       <c r="U3" t="n">
-        <v>67.2804317033972</v>
+        <v>1499.069554006839</v>
       </c>
       <c r="V3" t="n">
-        <v>67.2804317033972</v>
+        <v>1285.358026999873</v>
       </c>
       <c r="W3" t="n">
-        <v>50.29042369748881</v>
+        <v>1072.124858736202</v>
       </c>
       <c r="X3" t="n">
-        <v>35.32562464588472</v>
+        <v>895.7988768750946</v>
       </c>
       <c r="Y3" t="n">
-        <v>35.32562464588472</v>
+        <v>736.3969172389246</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
       <c r="C4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
       <c r="D4" t="n">
-        <v>52.3156326517931</v>
+        <v>676.5599877875002</v>
       </c>
       <c r="E4" t="n">
-        <v>52.3156326517931</v>
+        <v>515.6491726558197</v>
       </c>
       <c r="F4" t="n">
-        <v>35.32562464588472</v>
+        <v>351.018046766411</v>
       </c>
       <c r="G4" t="n">
-        <v>35.32562464588472</v>
+        <v>183.7676556919544</v>
       </c>
       <c r="H4" t="n">
-        <v>18.33561663997633</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>48.24274990262163</v>
       </c>
       <c r="K4" t="n">
-        <v>1.345608634067944</v>
+        <v>202.7950776248596</v>
       </c>
       <c r="L4" t="n">
-        <v>17.32471116362478</v>
+        <v>462.6921779049202</v>
       </c>
       <c r="M4" t="n">
-        <v>33.97661801021559</v>
+        <v>751.9562343454135</v>
       </c>
       <c r="N4" t="n">
-        <v>50.62852485680639</v>
+        <v>1032.795016739664</v>
       </c>
       <c r="O4" t="n">
-        <v>67.2804317033972</v>
+        <v>1292.355627066138</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1498.03106731575</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1563.559097118261</v>
       </c>
       <c r="R4" t="n">
-        <v>67.2804317033972</v>
+        <v>1563.559097118261</v>
       </c>
       <c r="S4" t="n">
-        <v>67.2804317033972</v>
+        <v>1377.167328998171</v>
       </c>
       <c r="T4" t="n">
-        <v>67.2804317033972</v>
+        <v>1377.167328998171</v>
       </c>
       <c r="U4" t="n">
-        <v>67.2804317033972</v>
+        <v>1094.369181544296</v>
       </c>
       <c r="V4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
       <c r="W4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
       <c r="X4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.3156326517931</v>
+        <v>836.0546324645902</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>919.2090416684985</v>
+        <v>967.0781832893787</v>
       </c>
       <c r="C5" t="n">
-        <v>913.1248550221726</v>
+        <v>556.9535926026488</v>
       </c>
       <c r="D5" t="n">
-        <v>719.5606882341729</v>
+        <v>152.4896626957093</v>
       </c>
       <c r="E5" t="n">
-        <v>485.8763909380658</v>
+        <v>142.1898512530101</v>
       </c>
       <c r="F5" t="n">
-        <v>252.1920936419587</v>
+        <v>125.1998432471017</v>
       </c>
       <c r="G5" t="n">
-        <v>18.50779634585168</v>
+        <v>120.5119631803379</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585168</v>
+        <v>120.5119631803379</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585168</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J5" t="n">
-        <v>18.50779634585168</v>
+        <v>78.09492891931109</v>
       </c>
       <c r="K5" t="n">
-        <v>247.5417761257662</v>
+        <v>500.8274100747735</v>
       </c>
       <c r="L5" t="n">
-        <v>467.3218577327549</v>
+        <v>500.8274100747735</v>
       </c>
       <c r="M5" t="n">
-        <v>696.3558375126694</v>
+        <v>923.559891230236</v>
       </c>
       <c r="N5" t="n">
-        <v>925.3898172925839</v>
+        <v>1346.292372385698</v>
       </c>
       <c r="O5" t="n">
-        <v>925.3898172925839</v>
+        <v>1346.292372385698</v>
       </c>
       <c r="P5" t="n">
-        <v>925.3898172925839</v>
+        <v>1346.292372385698</v>
       </c>
       <c r="Q5" t="n">
-        <v>925.3898172925839</v>
+        <v>1667.45337918099</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925839</v>
+        <v>1708.010024870555</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925839</v>
+        <v>1572.728949664656</v>
       </c>
       <c r="T5" t="n">
-        <v>925.3898172925839</v>
+        <v>1572.728949664656</v>
       </c>
       <c r="U5" t="n">
-        <v>925.3898172925839</v>
+        <v>1572.728949664656</v>
       </c>
       <c r="V5" t="n">
-        <v>925.3898172925839</v>
+        <v>1377.299362953868</v>
       </c>
       <c r="W5" t="n">
-        <v>925.3898172925839</v>
+        <v>1377.299362953868</v>
       </c>
       <c r="X5" t="n">
-        <v>925.3898172925839</v>
+        <v>1377.299362953868</v>
       </c>
       <c r="Y5" t="n">
-        <v>925.3898172925839</v>
+        <v>1377.299362953868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141.7524473471733</v>
+        <v>712.9910423839456</v>
       </c>
       <c r="C6" t="n">
-        <v>141.7524473471733</v>
+        <v>578.9959711328912</v>
       </c>
       <c r="D6" t="n">
-        <v>141.7524473471733</v>
+        <v>462.0988133522836</v>
       </c>
       <c r="E6" t="n">
-        <v>141.7524473471733</v>
+        <v>341.6059973446116</v>
       </c>
       <c r="F6" t="n">
-        <v>125.497909031513</v>
+        <v>232.6461175271162</v>
       </c>
       <c r="G6" t="n">
-        <v>18.50779634585168</v>
+        <v>125.6560048414549</v>
       </c>
       <c r="H6" t="n">
-        <v>18.50779634585168</v>
+        <v>54.90879187717093</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585168</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084849</v>
+        <v>226.9730580600443</v>
       </c>
       <c r="K6" t="n">
-        <v>211.3206539084849</v>
+        <v>649.7055392155067</v>
       </c>
       <c r="L6" t="n">
-        <v>211.3206539084849</v>
+        <v>649.7055392155067</v>
       </c>
       <c r="M6" t="n">
-        <v>211.3206539084849</v>
+        <v>649.7055392155067</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3206539084849</v>
+        <v>649.7055392155067</v>
       </c>
       <c r="O6" t="n">
-        <v>437.762338370125</v>
+        <v>905.8735596684794</v>
       </c>
       <c r="P6" t="n">
-        <v>666.7963181500395</v>
+        <v>1328.606040823942</v>
       </c>
       <c r="Q6" t="n">
-        <v>895.830297929954</v>
+        <v>1678.450505507925</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925839</v>
+        <v>1708.010024870555</v>
       </c>
       <c r="S6" t="n">
-        <v>925.3898172925839</v>
+        <v>1708.010024870555</v>
       </c>
       <c r="T6" t="n">
-        <v>766.047953479592</v>
+        <v>1548.668161057564</v>
       </c>
       <c r="U6" t="n">
-        <v>568.6971426178108</v>
+        <v>1548.668161057564</v>
       </c>
       <c r="V6" t="n">
-        <v>354.9856156108445</v>
+        <v>1402.255184780481</v>
       </c>
       <c r="W6" t="n">
-        <v>141.7524473471733</v>
+        <v>1189.022016516809</v>
       </c>
       <c r="X6" t="n">
-        <v>141.7524473471733</v>
+        <v>1012.696034655702</v>
       </c>
       <c r="Y6" t="n">
-        <v>141.7524473471733</v>
+        <v>853.2940750195322</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>787.1408190141615</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="C7" t="n">
-        <v>787.1408190141615</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="D7" t="n">
-        <v>627.6461743370714</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="E7" t="n">
-        <v>466.7353592053909</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="F7" t="n">
-        <v>302.1042333159821</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="G7" t="n">
-        <v>134.8538422415255</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="H7" t="n">
-        <v>134.8538422415255</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585168</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="J7" t="n">
-        <v>32.5903457510622</v>
+        <v>48.24274990262163</v>
       </c>
       <c r="K7" t="n">
-        <v>187.1426734733002</v>
+        <v>202.7950776248596</v>
       </c>
       <c r="L7" t="n">
-        <v>416.1766532532147</v>
+        <v>462.6921779049202</v>
       </c>
       <c r="M7" t="n">
-        <v>645.2106330331292</v>
+        <v>751.9562343454135</v>
       </c>
       <c r="N7" t="n">
-        <v>874.2446128130437</v>
+        <v>1032.795016739664</v>
       </c>
       <c r="O7" t="n">
-        <v>925.3898172925839</v>
+        <v>1292.355627066138</v>
       </c>
       <c r="P7" t="n">
-        <v>925.3898172925839</v>
+        <v>1498.03106731575</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925839</v>
+        <v>1563.559097118261</v>
       </c>
       <c r="R7" t="n">
-        <v>925.3898172925839</v>
+        <v>1478.286378793661</v>
       </c>
       <c r="S7" t="n">
-        <v>925.3898172925839</v>
+        <v>1291.894610673571</v>
       </c>
       <c r="T7" t="n">
-        <v>925.3898172925839</v>
+        <v>1052.345871650273</v>
       </c>
       <c r="U7" t="n">
-        <v>925.3898172925839</v>
+        <v>769.5477241963974</v>
       </c>
       <c r="V7" t="n">
-        <v>925.3898172925839</v>
+        <v>495.6619791359194</v>
       </c>
       <c r="W7" t="n">
-        <v>925.3898172925839</v>
+        <v>216.5923146447937</v>
       </c>
       <c r="X7" t="n">
-        <v>925.3898172925839</v>
+        <v>34.1602004974111</v>
       </c>
       <c r="Y7" t="n">
-        <v>925.3898172925839</v>
+        <v>34.1602004974111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>69.69763440824993</v>
+        <v>974.6830684215696</v>
       </c>
       <c r="C8" t="n">
-        <v>63.61344776192411</v>
+        <v>564.5584777348397</v>
       </c>
       <c r="D8" t="n">
-        <v>63.18992189538872</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>52.89011045268948</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>35.9001024467811</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>497.1688317915616</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M8" t="n">
-        <v>803.7147262854468</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
-        <v>1189.965978238161</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O8" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1425.330043794968</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1425.330043794968</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1168.269552054478</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V8" t="n">
-        <v>818.4319973909592</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W8" t="n">
-        <v>434.6716965261277</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="X8" t="n">
-        <v>75.87841003233534</v>
+        <v>1097.595934211262</v>
       </c>
       <c r="Y8" t="n">
-        <v>75.87841003233534</v>
+        <v>1097.595934211262</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>576.0479930154975</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>408.7046310488249</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7046310488249</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>408.7046310488249</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>794.9558830015396</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>794.9558830015396</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1519.087322597078</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1359.745458784086</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1162.394647922305</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>948.6831209153387</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>735.4499526516674</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>735.4499526516674</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>576.0479930154975</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>501.2251373833312</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>501.2251373833312</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D10" t="n">
-        <v>341.7304927062412</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E10" t="n">
-        <v>180.8196775745607</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F10" t="n">
-        <v>180.8196775745607</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>180.8196775745607</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1517.260107686487</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1243.374362626009</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>964.304698134883</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>725.9608359945664</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y10" t="n">
-        <v>501.2251373833312</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2045.765587100281</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.54083924277</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.224104752056</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.783732098172</v>
+        <v>1193.912262926501</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6531628810783</v>
+        <v>804.342148606198</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8247216031294</v>
+        <v>427.0741622250398</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600665</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J11" t="n">
-        <v>336.549618674113</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K11" t="n">
-        <v>874.7091197831526</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L11" t="n">
-        <v>1587.300519595391</v>
+        <v>1572.720066641011</v>
       </c>
       <c r="M11" t="n">
-        <v>2363.619110587144</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N11" t="n">
-        <v>3116.800127225762</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O11" t="n">
-        <v>3760.430983642867</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.207360317934</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q11" t="n">
-        <v>4118.207360317934</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4532.904103612606</v>
       </c>
       <c r="T11" t="n">
-        <v>4020.826127941254</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U11" t="n">
-        <v>3801.665479029984</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V11" t="n">
-        <v>3489.727767195683</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W11" t="n">
-        <v>3143.86730916007</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X11" t="n">
-        <v>2781.123754158242</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y11" t="n">
-        <v>2418.086923935552</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>771.5653395083843</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>637.57026825733</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>520.6731104767224</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>400.1802944690504</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>291.220414651555</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>184.2303019658937</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342906</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L12" t="n">
-        <v>906.4722783156785</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="M12" t="n">
-        <v>1749.449359010245</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="N12" t="n">
-        <v>1749.449359010245</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="O12" t="n">
-        <v>1749.449359010245</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P12" t="n">
-        <v>1749.449359010245</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q12" t="n">
-        <v>2099.293823694229</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.233683586659</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.891819773667</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.541008911886</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.82948190492</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.596313641248</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.270331780141</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>911.868372143971</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>638.0664331225412</v>
+        <v>609.3801893489235</v>
       </c>
       <c r="C13" t="n">
-        <v>571.7483927249813</v>
+        <v>469.7471146366497</v>
       </c>
       <c r="D13" t="n">
-        <v>450.1535908771103</v>
+        <v>341.7127676855693</v>
       </c>
       <c r="E13" t="n">
-        <v>450.1535908771103</v>
+        <v>212.2622502798984</v>
       </c>
       <c r="F13" t="n">
-        <v>323.4223078169206</v>
+        <v>210.8816550903836</v>
       </c>
       <c r="G13" t="n">
-        <v>194.071759571683</v>
+        <v>210.8816550903836</v>
       </c>
       <c r="H13" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684868</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476423</v>
+        <v>323.0378503518225</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846204</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820313</v>
+        <v>933.8674826749004</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.555255987168</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S13" t="n">
-        <v>1713.063330696297</v>
+        <v>1713.875826258716</v>
       </c>
       <c r="T13" t="n">
-        <v>1511.414434502218</v>
+        <v>1713.875826258716</v>
       </c>
       <c r="U13" t="n">
-        <v>1266.516129877562</v>
+        <v>1462.53797653085</v>
       </c>
       <c r="V13" t="n">
-        <v>1266.516129877562</v>
+        <v>1220.112529196381</v>
       </c>
       <c r="W13" t="n">
-        <v>1025.346308215655</v>
+        <v>972.5031624312653</v>
       </c>
       <c r="X13" t="n">
-        <v>824.9022889045575</v>
+        <v>765.6195980169583</v>
       </c>
       <c r="Y13" t="n">
-        <v>638.0664331225412</v>
+        <v>765.6195980169583</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1861.458945876359</v>
+        <v>2328.460105825245</v>
       </c>
       <c r="C14" t="n">
-        <v>1489.234198018848</v>
+        <v>1949.795812864525</v>
       </c>
       <c r="D14" t="n">
-        <v>1122.670110941128</v>
+        <v>1576.792180683595</v>
       </c>
       <c r="E14" t="n">
-        <v>746.2297382872434</v>
+        <v>1193.912262926502</v>
       </c>
       <c r="F14" t="n">
-        <v>746.2297382872434</v>
+        <v>804.3421486061989</v>
       </c>
       <c r="G14" t="n">
-        <v>375.4012970092946</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H14" t="n">
-        <v>102.3926424662315</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J14" t="n">
-        <v>165.1692974300282</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K14" t="n">
-        <v>703.3287985390677</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L14" t="n">
-        <v>1415.920198351306</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M14" t="n">
-        <v>2192.23878934306</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N14" t="n">
-        <v>2945.419805981678</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O14" t="n">
-        <v>3589.050662398783</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.207360317934</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q14" t="n">
-        <v>4118.207360317934</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941254</v>
+        <v>4532.904103612606</v>
       </c>
       <c r="T14" t="n">
-        <v>3836.519486717332</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U14" t="n">
-        <v>3617.358837806061</v>
+        <v>4116.557723270995</v>
       </c>
       <c r="V14" t="n">
-        <v>3305.421125971761</v>
+        <v>3798.180466333485</v>
       </c>
       <c r="W14" t="n">
-        <v>2959.560667936149</v>
+        <v>3445.880463194663</v>
       </c>
       <c r="X14" t="n">
-        <v>2596.81711293432</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y14" t="n">
-        <v>2233.78028271163</v>
+        <v>2707.220987763725</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>771.5653395083843</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>637.57026825733</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>520.6731104767224</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>400.1802944690504</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>291.220414651555</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>184.2303019658937</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J15" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="K15" t="n">
-        <v>513.3458953384509</v>
+        <v>548.5407538871486</v>
       </c>
       <c r="L15" t="n">
-        <v>513.3458953384509</v>
+        <v>1209.628925806437</v>
       </c>
       <c r="M15" t="n">
-        <v>513.3458953384509</v>
+        <v>1209.628925806437</v>
       </c>
       <c r="N15" t="n">
-        <v>513.3458953384509</v>
+        <v>1209.628925806437</v>
       </c>
       <c r="O15" t="n">
-        <v>1217.302985884345</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="P15" t="n">
-        <v>1779.008878372875</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="Q15" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.233683586659</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.891819773667</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.541008911886</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.82948190492</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.596313641248</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.270331780141</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>911.868372143971</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>299.6535428218377</v>
+        <v>696.6056530868013</v>
       </c>
       <c r="C16" t="n">
-        <v>211.7146954515962</v>
+        <v>556.9725783745274</v>
       </c>
       <c r="D16" t="n">
-        <v>211.7146954515962</v>
+        <v>428.9382314234471</v>
       </c>
       <c r="E16" t="n">
-        <v>211.7146954515962</v>
+        <v>428.9382314234471</v>
       </c>
       <c r="F16" t="n">
-        <v>211.7146954515962</v>
+        <v>295.7674032600479</v>
       </c>
       <c r="G16" t="n">
-        <v>82.36414720635868</v>
+        <v>295.7674032600479</v>
       </c>
       <c r="H16" t="n">
-        <v>82.36414720635868</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684866</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476421</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846202</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820311</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.727143233199</v>
+        <v>1245.540502870412</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.928131482549</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.928131482549</v>
+        <v>1814.994876054205</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.436206191678</v>
+        <v>1660.063405660125</v>
       </c>
       <c r="T16" t="n">
-        <v>1558.787309997599</v>
+        <v>1451.974964362837</v>
       </c>
       <c r="U16" t="n">
-        <v>1313.889005372942</v>
+        <v>1451.974964362837</v>
       </c>
       <c r="V16" t="n">
-        <v>1077.903103141683</v>
+        <v>1209.549517028368</v>
       </c>
       <c r="W16" t="n">
-        <v>836.7332814797768</v>
+        <v>1209.549517028368</v>
       </c>
       <c r="X16" t="n">
-        <v>636.2892621686792</v>
+        <v>1046.120462640062</v>
       </c>
       <c r="Y16" t="n">
-        <v>449.453406386663</v>
+        <v>852.8450617548361</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305405</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415258</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188926</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616724</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H17" t="n">
-        <v>103.379134139338</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J17" t="n">
-        <v>165.1692974300282</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K17" t="n">
-        <v>703.3287985390677</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L17" t="n">
-        <v>1415.920198351306</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M17" t="n">
-        <v>2192.23878934306</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N17" t="n">
-        <v>2945.419805981678</v>
+        <v>3127.170477641254</v>
       </c>
       <c r="O17" t="n">
-        <v>3589.050662398783</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P17" t="n">
-        <v>4118.207360317934</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317934</v>
+        <v>4621.119038772802</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861983</v>
+        <v>4532.904103612606</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568247</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654675</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>771.5653395083843</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>637.57026825733</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>520.6731104767224</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>400.1802944690504</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>291.220414651555</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>184.2303019658937</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J18" t="n">
-        <v>275.1770047689919</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K18" t="n">
-        <v>730.9832610342906</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L18" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="M18" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="N18" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.233683586659</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.891819773667</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.541008911886</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.82948190492</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.596313641248</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.270331780141</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>911.868372143971</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578622</v>
+        <v>317.2533205037881</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695263</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423839</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606509</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211898</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966807</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="H19" t="n">
-        <v>133.373417352085</v>
+        <v>177.6202457915142</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240928</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588544</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514385</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704455</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.181833011229</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127397</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182602</v>
+        <v>1823.112799596095</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1615.024358298806</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1363.68650857094</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894794</v>
+        <v>1121.261061236472</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153616</v>
+        <v>873.6516944713554</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632468</v>
+        <v>666.7681300570486</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019591</v>
+        <v>473.4927291718229</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2328.460105825245</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148413</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415257</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188925</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616723</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J20" t="n">
-        <v>82.36414720635868</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K20" t="n">
-        <v>620.5236483153982</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.202545866449</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M20" t="n">
-        <v>1830.521136858203</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N20" t="n">
-        <v>2583.702153496821</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O20" t="n">
-        <v>3227.333009913926</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P20" t="n">
-        <v>3756.489707833077</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q20" t="n">
-        <v>4077.650714628369</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861982</v>
+        <v>4532.904103612606</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>4116.557723270995</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654675</v>
+        <v>3798.180466333485</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539791</v>
+        <v>3445.880463194663</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458691</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.838813156729</v>
+        <v>2707.220987763725</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>771.5653395083843</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>637.57026825733</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>520.6731104767224</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>400.1802944690504</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>291.220414651555</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>184.2303019658937</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L21" t="n">
-        <v>1392.071432953579</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="M21" t="n">
-        <v>1392.071432953579</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="N21" t="n">
-        <v>1424.896252510964</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="O21" t="n">
-        <v>2128.853343056859</v>
+        <v>1227.673336299837</v>
       </c>
       <c r="P21" t="n">
-        <v>2128.853343056859</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="Q21" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.233683586659</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.891819773667</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.541008911886</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.82948190492</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.596313641248</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.270331780141</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>911.868372143971</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578618</v>
+        <v>414.8999115807161</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695259</v>
+        <v>353.9396727363294</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423834</v>
+        <v>225.905325785249</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606507</v>
+        <v>225.905325785249</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211895</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966805</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520847</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240928</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588544</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704455</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.181833011229</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250227</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412363</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127397</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182602</v>
+        <v>1713.875826258716</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909252</v>
+        <v>1505.787384961428</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1254.449535233561</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894793</v>
+        <v>1012.024087899093</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153615</v>
+        <v>764.4147211339766</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632463</v>
+        <v>764.4147211339766</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019586</v>
+        <v>571.1393202487509</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148413</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415257</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188925</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616723</v>
+        <v>427.0741622250396</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>147.6259625787671</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J23" t="n">
-        <v>82.36414720635868</v>
+        <v>321.9691657197333</v>
       </c>
       <c r="K23" t="n">
-        <v>620.5236483153982</v>
+        <v>860.1286668287728</v>
       </c>
       <c r="L23" t="n">
-        <v>1333.115048127636</v>
+        <v>1572.720066641011</v>
       </c>
       <c r="M23" t="n">
-        <v>2109.43363911939</v>
+        <v>2349.038657632765</v>
       </c>
       <c r="N23" t="n">
-        <v>2862.614655758008</v>
+        <v>3102.219674271383</v>
       </c>
       <c r="O23" t="n">
-        <v>3506.245512175113</v>
+        <v>3745.850530688488</v>
       </c>
       <c r="P23" t="n">
-        <v>4035.402210094265</v>
+        <v>4275.007228607639</v>
       </c>
       <c r="Q23" t="n">
-        <v>4118.207360317934</v>
+        <v>4596.168235402931</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317934</v>
+        <v>4636.724881092496</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861983</v>
+        <v>4532.904103612606</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4342.157917285474</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568247</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539791</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458691</v>
+        <v>3076.697363089625</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.838813156729</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>771.5653395083843</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>637.57026825733</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>520.6731104767224</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>400.1802944690504</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>291.220414651555</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>184.2303019658937</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>113.4830890016097</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J24" t="n">
-        <v>275.1770047689919</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K24" t="n">
-        <v>275.1770047689919</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L24" t="n">
-        <v>382.6586508880441</v>
+        <v>1402.44178336907</v>
       </c>
       <c r="M24" t="n">
-        <v>1225.635731582611</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="N24" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="P24" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="Q24" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.233683586659</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1871.891819773667</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1674.541008911886</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1460.82948190492</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1247.596313641248</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.270331780141</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>911.868372143971</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578621</v>
+        <v>707.9090130239383</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695262</v>
+        <v>568.2759383116645</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423837</v>
+        <v>440.2415913605842</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606508</v>
+        <v>310.7910739549133</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211896</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>92.73449762184991</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240925</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588541</v>
+        <v>323.0378503518225</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514383</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704455</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.181833011229</v>
+        <v>1245.540502870413</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250227</v>
+        <v>1535.935350998149</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412363</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1660.718855355508</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1409.381005627642</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1166.955558293173</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>919.346191528057</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632465</v>
+        <v>864.1484216919731</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019588</v>
+        <v>864.1484216919731</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
@@ -6212,10 +6212,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764623</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6269,7 +6269,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="L27" t="n">
-        <v>1198.623017005979</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.623017005979</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>1198.623017005979</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>234.5401592942212</v>
+        <v>706.8479580667885</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>565.5514964631899</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>565.5514964631899</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049082</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362208</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672485</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1752.043346625801</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.291518437188</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U28" t="n">
-        <v>1289.290281817997</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.201447592204</v>
+        <v>1322.570458588221</v>
       </c>
       <c r="W28" t="n">
-        <v>795.9286939357628</v>
+        <v>1073.29770493178</v>
       </c>
       <c r="X28" t="n">
-        <v>587.3817426301313</v>
+        <v>864.750753626148</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.4429548535808</v>
+        <v>864.750753626148</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6449,7 +6449,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
         <v>430.9101360764621</v>
@@ -6461,10 +6461,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6476,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6491,13 +6491,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6546,22 +6546,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>338.7710254524902</v>
+        <v>283.2952179625742</v>
       </c>
       <c r="C31" t="n">
-        <v>338.7710254524902</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D31" t="n">
-        <v>338.7710254524902</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7710254524902</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>203.9368103977663</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>203.9368103977663</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
         <v>1526.662838113797</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.522384595457</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U31" t="n">
-        <v>1393.521147976266</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.432313750473</v>
+        <v>1093.956506260557</v>
       </c>
       <c r="W31" t="n">
-        <v>900.159560094032</v>
+        <v>844.683752604116</v>
       </c>
       <c r="X31" t="n">
-        <v>691.6126087884003</v>
+        <v>636.1368012984842</v>
       </c>
       <c r="Y31" t="n">
-        <v>496.6738210118498</v>
+        <v>441.1980135219337</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2149.565850344208</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1804.778035407426</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1465.650881250434</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1051.310665767331</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188929</v>
+        <v>695.6170294709657</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>352.2255211137455</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>106.6537994914111</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>85.63881255843185</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>339.8242840261861</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7091197831526</v>
+        <v>877.9837851352256</v>
       </c>
       <c r="L32" t="n">
-        <v>1583.3592437856</v>
+        <v>1590.575184947464</v>
       </c>
       <c r="M32" t="n">
-        <v>2359.677834777354</v>
+        <v>2366.893775939217</v>
       </c>
       <c r="N32" t="n">
-        <v>3112.858851415972</v>
+        <v>2747.435421100479</v>
       </c>
       <c r="O32" t="n">
-        <v>3756.489707833077</v>
+        <v>3391.066277517584</v>
       </c>
       <c r="P32" t="n">
-        <v>3756.489707833077</v>
+        <v>3920.222975436736</v>
       </c>
       <c r="Q32" t="n">
-        <v>4077.650714628369</v>
+        <v>4241.383982232028</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4281.940627921593</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4211.996328465641</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4055.126620162448</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>3863.402904171906</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3578.902125258334</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3260.47860014345</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458692</v>
+        <v>2895.38692731066</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2559.787030008698</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>764.4696544449662</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>630.4745831939119</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>513.5774254133044</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>393.0846094056324</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>284.1247295881369</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>177.1346169024756</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>106.3874039381917</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>85.63881255843185</v>
       </c>
       <c r="J33" t="n">
-        <v>275.1770047689919</v>
+        <v>278.4516701210651</v>
       </c>
       <c r="K33" t="n">
-        <v>730.9832610342906</v>
+        <v>734.2579263863638</v>
       </c>
       <c r="L33" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.577651236418</v>
       </c>
       <c r="M33" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.577651236418</v>
       </c>
       <c r="N33" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.577651236418</v>
       </c>
       <c r="O33" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.577651236418</v>
       </c>
       <c r="P33" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.283543724948</v>
       </c>
       <c r="Q33" t="n">
-        <v>2099.293823694229</v>
+        <v>2132.128008408932</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2132.128008408932</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2024.137998523241</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.796134710249</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.445323848468</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.733796841501</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.50062857783</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1064.174646716723</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>904.7726870805528</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578619</v>
+        <v>717.6152326099354</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695261</v>
+        <v>611.8586359215996</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423837</v>
+        <v>517.7007669944572</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606508</v>
+        <v>422.1267276127243</v>
       </c>
       <c r="F34" t="n">
-        <v>319.5577121211896</v>
+        <v>322.8323774732631</v>
       </c>
       <c r="G34" t="n">
-        <v>217.6440967966806</v>
+        <v>220.918762148754</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520849</v>
+        <v>136.6480827041582</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>85.63881255843185</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240929</v>
+        <v>163.7579358761658</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588545</v>
+        <v>382.3468375109275</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514388</v>
+        <v>706.2805117035115</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704456</v>
+        <v>1059.581142056529</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.18183301123</v>
+        <v>1404.456498363302</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1728.0536826023</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412364</v>
+        <v>1997.765696764436</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2127.330300479471</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2107.394357904818</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182602</v>
+        <v>1986.339365534676</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909252</v>
+        <v>1812.127402261326</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1594.666030557397</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894793</v>
+        <v>1386.117061246867</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153615</v>
+        <v>1172.384172505689</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632464</v>
+        <v>999.3770861153198</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019587</v>
+        <v>839.9781632540321</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305404</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148412</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.342364118892</v>
+        <v>692.3423641188929</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616718</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H35" t="n">
         <v>103.3791341393379</v>
@@ -6947,10 +6947,10 @@
         <v>2363.619110587144</v>
       </c>
       <c r="N35" t="n">
-        <v>3116.800127225762</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O35" t="n">
-        <v>3760.430983642867</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P35" t="n">
         <v>3797.046353522642</v>
@@ -6965,19 +6965,19 @@
         <v>4048.263060861983</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.393352558789</v>
+        <v>3891.39335255879</v>
       </c>
       <c r="U35" t="n">
         <v>3699.669636568247</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
         <v>2425.838813156729</v>
@@ -7020,13 +7020,13 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L36" t="n">
-        <v>730.9832610342906</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M36" t="n">
-        <v>730.9832610342906</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N36" t="n">
-        <v>730.9832610342906</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O36" t="n">
         <v>1187.743466521715</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578617</v>
+        <v>714.3405672578618</v>
       </c>
       <c r="C37" t="n">
         <v>608.5839705695259</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423835</v>
+        <v>514.4261016423836</v>
       </c>
       <c r="E37" t="n">
         <v>418.8520622606507</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966805</v>
+        <v>217.6440967966806</v>
       </c>
       <c r="H37" t="n">
         <v>133.3734173520849</v>
@@ -7099,10 +7099,10 @@
         <v>379.0721721588545</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514379</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N37" t="n">
         <v>1401.181833011229</v>
@@ -7114,7 +7114,7 @@
         <v>1994.491031412363</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127397</v>
       </c>
       <c r="R37" t="n">
         <v>2104.119692552744</v>
@@ -7135,10 +7135,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632462</v>
+        <v>996.1024207632463</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019585</v>
+        <v>836.7034979019586</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
         <v>692.3423641188926</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616725</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7172,46 +7172,46 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K38" t="n">
-        <v>874.7091197831526</v>
+        <v>620.5236483153982</v>
       </c>
       <c r="L38" t="n">
-        <v>1587.300519595391</v>
+        <v>1333.115048127636</v>
       </c>
       <c r="M38" t="n">
-        <v>2363.619110587144</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N38" t="n">
-        <v>3116.800127225762</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O38" t="n">
-        <v>3760.430983642867</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>4118.207360317934</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.39335255879</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
         <v>3699.669636568247</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539792</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X38" t="n">
         <v>2761.438710458692</v>
@@ -7257,22 +7257,22 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L39" t="n">
-        <v>1187.743466521715</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M39" t="n">
-        <v>1187.743466521715</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="N39" t="n">
-        <v>1187.743466521715</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="O39" t="n">
-        <v>1187.743466521715</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="P39" t="n">
-        <v>1749.449359010245</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q39" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578617</v>
+        <v>714.3405672578619</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695261</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423835</v>
+        <v>514.4261016423836</v>
       </c>
       <c r="E40" t="n">
         <v>418.8520622606507</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966805</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H40" t="n">
         <v>133.3734173520849</v>
@@ -7330,13 +7330,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240926</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M40" t="n">
         <v>1056.306476704455</v>
@@ -7354,7 +7354,7 @@
         <v>2124.055635127398</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552744</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
         <v>1983.064700182602</v>
@@ -7372,10 +7372,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632462</v>
+        <v>996.1024207632464</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019585</v>
+        <v>836.7034979019587</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.166594305405</v>
+        <v>1736.166594305406</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188925</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7412,22 +7412,22 @@
         <v>336.549618674113</v>
       </c>
       <c r="K41" t="n">
-        <v>874.7091197831526</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L41" t="n">
-        <v>1587.300519595391</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M41" t="n">
-        <v>2363.619110587144</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N41" t="n">
-        <v>3116.800127225762</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O41" t="n">
-        <v>3760.430983642867</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P41" t="n">
-        <v>3760.430983642867</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q41" t="n">
         <v>4077.650714628369</v>
@@ -7442,10 +7442,10 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V41" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W41" t="n">
         <v>3096.745332539791</v>
@@ -7494,22 +7494,22 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L42" t="n">
-        <v>1392.071432953579</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M42" t="n">
-        <v>1749.449359010245</v>
+        <v>863.1903600224343</v>
       </c>
       <c r="N42" t="n">
-        <v>1749.449359010245</v>
+        <v>863.1903600224343</v>
       </c>
       <c r="O42" t="n">
-        <v>1749.449359010245</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="P42" t="n">
-        <v>1749.449359010245</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q42" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578619</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C43" t="n">
-        <v>608.5839705695261</v>
+        <v>608.5839705695262</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423836</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606507</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211895</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966805</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H43" t="n">
         <v>133.373417352085</v>
@@ -7567,25 +7567,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240925</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588541</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M43" t="n">
         <v>1056.306476704455</v>
       </c>
       <c r="N43" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O43" t="n">
         <v>1724.779017250227</v>
       </c>
       <c r="P43" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q43" t="n">
         <v>2124.055635127398</v>
@@ -7597,7 +7597,7 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T43" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U43" t="n">
         <v>1591.391365205324</v>
@@ -7606,10 +7606,10 @@
         <v>1382.842395894794</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X43" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632464</v>
       </c>
       <c r="Y43" t="n">
         <v>836.7034979019588</v>
@@ -7631,19 +7631,19 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F44" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G44" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H44" t="n">
-        <v>103.379134139338</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I44" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J44" t="n">
         <v>336.549618674113</v>
@@ -7658,22 +7658,22 @@
         <v>2363.619110587144</v>
       </c>
       <c r="N44" t="n">
-        <v>2583.702153496822</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O44" t="n">
-        <v>3227.333009913927</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="P44" t="n">
-        <v>3756.489707833078</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="Q44" t="n">
-        <v>4077.65071462837</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R44" t="n">
-        <v>4118.207360317935</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S44" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T44" t="n">
         <v>3891.393352558789</v>
@@ -7682,13 +7682,13 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V44" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W44" t="n">
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7722,31 +7722,31 @@
         <v>103.1127385861185</v>
       </c>
       <c r="I45" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J45" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K45" t="n">
-        <v>730.9832610342906</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="N45" t="n">
-        <v>1187.743466521715</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="O45" t="n">
-        <v>1187.743466521715</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="P45" t="n">
-        <v>1749.449359010245</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q45" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R45" t="n">
         <v>2128.853343056859</v>
@@ -7792,31 +7792,31 @@
         <v>418.8520622606509</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G46" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H46" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I46" t="n">
-        <v>82.36414720635871</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240926</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588543</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O46" t="n">
         <v>1724.779017250227</v>
@@ -7831,10 +7831,10 @@
         <v>2104.119692552745</v>
       </c>
       <c r="S46" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T46" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U46" t="n">
         <v>1591.391365205324</v>
@@ -7846,10 +7846,10 @@
         <v>1169.109507153616</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632468</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019591</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.14369925915724</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>516.1388958908559</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>109.4307320626584</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>109.7323986824686</v>
+        <v>137.2908043140941</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>520.1922818434219</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.651869498523</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.8539123250013</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8055,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1893467258493</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.8282890022542</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>314.8701000259729</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8073,13 +8073,13 @@
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>70.40014260841672</v>
+        <v>481.2621412204426</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.51272643068802</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>75.82030703125471</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>70.76880149951448</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>73.08505042462934</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>68.53275343426874</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>117.7021048907827</v>
       </c>
       <c r="K5" t="n">
-        <v>320.4838439963631</v>
+        <v>516.1388958908559</v>
       </c>
       <c r="L5" t="n">
-        <v>317.4854804941465</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>324.6376787801914</v>
+        <v>520.2927306746843</v>
       </c>
       <c r="N5" t="n">
-        <v>324.2597450797653</v>
+        <v>519.9147969742581</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
@@ -8234,10 +8234,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>482.8282890022542</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
@@ -8307,13 +8307,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>286.4804532036769</v>
+        <v>316.5070552151239</v>
       </c>
       <c r="P6" t="n">
-        <v>285.6070893259497</v>
+        <v>481.2621412204426</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.0400728279847</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8377,22 +8377,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>285.9757482170475</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>287.612396821926</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315654</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>107.7367207796026</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,19 +8453,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>549.1401736751965</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>483.4430042072623</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>467.5788066992237</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8474,7 +8474,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>242.3707839019632</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8693,7 +8693,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>790.0718591157408</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8705,13 +8705,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,10 +8772,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3761574284126</v>
+        <v>517.4884687476417</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8784,7 +8784,7 @@
         <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,7 +8933,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>852.2475856912706</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -8945,10 +8945,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>491.1608819079408</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9018,7 +9018,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>75.97815626606031</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>156.9651572158024</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9182,10 +9182,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>103.0756199053232</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>517.4884687476415</v>
+        <v>517.4884687476417</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>533.5448905386536</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>828.4983647654545</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9483,22 +9483,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>86.34977678504833</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>548.9835243030856</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>304.8737611291497</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9656,10 +9656,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>164.681843123023</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>801.7884353578922</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
@@ -9738,7 +9738,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,28 +9954,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>334.6754349364888</v>
       </c>
       <c r="L27" t="n">
-        <v>517.4884687476416</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>517.4884687476416</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10212,7 +10212,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,19 +10352,19 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>811.2936041259236</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>477.2977909195101</v>
       </c>
       <c r="O32" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10431,7 +10431,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>517.4884687476415</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10449,7 +10449,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,13 +10595,13 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.701196452193</v>
+        <v>356.1847034831256</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>130.6345853816668</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10668,7 +10668,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10677,7 +10677,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>519.1254239367925</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10829,7 +10829,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>595.7206171141833</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10838,13 +10838,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,10 +10905,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755383</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10920,10 +10920,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>94.24904359250789</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11075,10 +11075,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.4577750915782</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11142,25 +11142,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>418.55208783606</v>
+        <v>191.1068079688656</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,19 +11306,19 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>315.2183947057883</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>455.0396427506486</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>517.4884687476415</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11388,16 +11388,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.9748790611361</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.2067343193895</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794369</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.4723306441453</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579027</v>
+        <v>84.03689068796757</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53.27429639260481</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249225</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.13919034789662</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>44.80213541643479</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794369</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H16" t="n">
-        <v>110.5905362416711</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579027</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042751</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>43.01996492574042</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.27429639260484</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.1446036040047</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>77.88610750920819</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.0368906879676</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>53.27429639260484</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>53.2742963926048</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>150.1689366324404</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="26">
@@ -24607,19 +24607,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>106.761400630881</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>171.4067633893708</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>81.53525717235607</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>94.70990104656696</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501634</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>155.0289087125508</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>819469.3792381623</v>
+        <v>866194.3828592334</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>844273.0743674756</v>
+        <v>866194.3828592334</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>862634.1781752375</v>
+        <v>875378.6259542309</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>848600.9514389138</v>
+        <v>892033.2253652697</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>848600.9514389137</v>
+        <v>892033.2253652697</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>907369.0461105908</v>
+        <v>892033.2253652697</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>907369.0461105908</v>
+        <v>892033.2253652697</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>907369.0461105908</v>
+        <v>892033.2253652697</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>891280.2131076956</v>
+        <v>891280.2131076953</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>907369.0461105908</v>
+        <v>909949.3500983133</v>
       </c>
     </row>
     <row r="13">
@@ -26317,25 +26317,25 @@
         <v>342053.0253681595</v>
       </c>
       <c r="D2" t="n">
-        <v>342053.0253681594</v>
+        <v>342053.0253681595</v>
       </c>
       <c r="E2" t="n">
-        <v>316866.6990802978</v>
+        <v>331978.4948530151</v>
       </c>
       <c r="F2" t="n">
-        <v>316866.6990802979</v>
+        <v>331978.4948530151</v>
       </c>
       <c r="G2" t="n">
-        <v>342053.0253681592</v>
+        <v>331978.4948530148</v>
       </c>
       <c r="H2" t="n">
-        <v>342053.0253681594</v>
+        <v>331978.494853015</v>
       </c>
       <c r="I2" t="n">
-        <v>342053.0253681593</v>
+        <v>331978.4948530148</v>
       </c>
       <c r="J2" t="n">
-        <v>331483.8199938603</v>
+        <v>331483.8199938604</v>
       </c>
       <c r="K2" t="n">
         <v>331483.8199938603</v>
@@ -26347,13 +26347,13 @@
         <v>342053.0253681595</v>
       </c>
       <c r="N2" t="n">
-        <v>342053.0253681595</v>
+        <v>342053.0253681593</v>
       </c>
       <c r="O2" t="n">
         <v>342053.0253681593</v>
       </c>
       <c r="P2" t="n">
-        <v>342053.0253681592</v>
+        <v>342053.0253681594</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>143098.3608911738</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633426</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741104</v>
+        <v>29528.81835765589</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>215145.8694717669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321701</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231424</v>
+        <v>136987.1614028035</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757942</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.8686086068</v>
+        <v>28147.57301288809</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>148571.5205214761</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.10250785333</v>
+        <v>23599.15338107037</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332425.3313177897</v>
+        <v>248808.8789228964</v>
       </c>
       <c r="C4" t="n">
-        <v>288038.0261863165</v>
+        <v>248808.8789228964</v>
       </c>
       <c r="D4" t="n">
-        <v>255180.0220455301</v>
+        <v>232373.271303389</v>
       </c>
       <c r="E4" t="n">
-        <v>147835.682196227</v>
+        <v>149626.0047286917</v>
       </c>
       <c r="F4" t="n">
-        <v>147835.6821962269</v>
+        <v>149626.0047286917</v>
       </c>
       <c r="G4" t="n">
-        <v>175284.6946798805</v>
+        <v>149626.0047286917</v>
       </c>
       <c r="H4" t="n">
-        <v>175284.6946798806</v>
+        <v>149626.0047286917</v>
       </c>
       <c r="I4" t="n">
-        <v>175284.6946798806</v>
+        <v>149626.0047286917</v>
       </c>
       <c r="J4" t="n">
         <v>148366.1238023682</v>
@@ -26445,7 +26445,7 @@
         <v>148366.1238023682</v>
       </c>
       <c r="L4" t="n">
-        <v>175284.6946798805</v>
+        <v>170667.1270215989</v>
       </c>
       <c r="M4" t="n">
         <v>175284.6946798806</v>
@@ -26457,7 +26457,7 @@
         <v>175284.6946798805</v>
       </c>
       <c r="P4" t="n">
-        <v>175284.6946798806</v>
+        <v>175284.6946798805</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>59589.35237803244</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284727</v>
+        <v>59589.35237803244</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477411</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477411</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334972</v>
+        <v>73096.60560443855</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>70523.36697092533</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26509,7 +26509,7 @@
         <v>68034.62130334972</v>
       </c>
       <c r="P5" t="n">
-        <v>68034.62130334973</v>
+        <v>68034.62130334972</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30659.37353995611</v>
+        <v>-109443.566823943</v>
       </c>
       <c r="C6" t="n">
-        <v>-62986.02300733855</v>
+        <v>33654.79406723068</v>
       </c>
       <c r="D6" t="n">
-        <v>-19805.58392359491</v>
+        <v>14781.87062861703</v>
       </c>
       <c r="E6" t="n">
-        <v>-117647.2430164365</v>
+        <v>-105937.9589067161</v>
       </c>
       <c r="F6" t="n">
-        <v>103279.9251392969</v>
+        <v>109207.9105650509</v>
       </c>
       <c r="G6" t="n">
-        <v>77003.658511712</v>
+        <v>109207.9105650506</v>
       </c>
       <c r="H6" t="n">
+        <v>109207.9105650508</v>
+      </c>
+      <c r="I6" t="n">
+        <v>109207.9105650506</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-27264.95153757752</v>
+      </c>
+      <c r="K6" t="n">
+        <v>109722.2098652258</v>
+      </c>
+      <c r="L6" t="n">
+        <v>72714.95836274707</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-49837.81113654691</v>
+      </c>
+      <c r="N6" t="n">
         <v>98733.70938492905</v>
       </c>
-      <c r="I6" t="n">
-        <v>98733.709384929</v>
-      </c>
-      <c r="J6" t="n">
-        <v>67920.44275231294</v>
-      </c>
-      <c r="K6" t="n">
-        <v>54560.06532704785</v>
-      </c>
-      <c r="L6" t="n">
-        <v>43082.84077632234</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-60607.09404536542</v>
-      </c>
-      <c r="N6" t="n">
-        <v>98733.70938492917</v>
-      </c>
       <c r="O6" t="n">
-        <v>96864.6068770757</v>
+        <v>75134.55600385867</v>
       </c>
       <c r="P6" t="n">
-        <v>98733.70938492892</v>
+        <v>98733.70938492914</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
@@ -26719,13 +26719,13 @@
         <v>64.68340799244814</v>
       </c>
       <c r="N2" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O2" t="n">
         <v>64.6834079924481</v>
       </c>
       <c r="P2" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="3">
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="C4" t="n">
-        <v>231.347454323146</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1159.181220273124</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1159.181220273124</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1159.181220273124</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1159.181220273124</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1159.181220273124</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1070.485156980398</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152126</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816705</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763137</v>
+        <v>35.18446626611011</v>
       </c>
       <c r="M2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816663</v>
+        <v>29.49894172633797</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="C4" t="n">
-        <v>214.5273463972967</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270709</v>
+        <v>95.06106415238673</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>637.1176499030984</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>433.3675070772999</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437376956</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>596.1843330021834</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152126</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816705</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="K4" t="n">
-        <v>214.5273463972967</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270709</v>
+        <v>95.06106415238673</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>637.1176499030984</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2032368540133</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>389.7408140831456</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>118.4096109617211</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.21963290879181</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.720997540112926</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>95.43634638491879</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.2807286551852</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>159.7475709814081</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,22 +27540,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>146.1647067046653</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.2912727167486</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.36247751086781</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>256.3317365487852</v>
+        <v>15.41548402096501</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>208.7907654877503</v>
-      </c>
-      <c r="E5" t="n">
-        <v>178.8493590051263</v>
-      </c>
-      <c r="F5" t="n">
-        <v>185.4726536027033</v>
-      </c>
       <c r="G5" t="n">
-        <v>173.2935469429501</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27673,7 +27673,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>152.8638882732042</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>91.77828808681673</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,19 +27749,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>66.62556522258447</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.95620103446578</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300467</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>284.4352307360494</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>41.43161022388256</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>65.80155134708248</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>237.0526647781</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874954</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092683</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874972</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244808</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874951</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874958</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="J25" t="n">
-        <v>64.6834079924478</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244812</v>
+        <v>31.14569474874954</v>
       </c>
     </row>
     <row r="26">
@@ -29533,7 +29533,7 @@
         <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>64.68340799244811</v>
@@ -29755,7 +29755,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>64.68340799244811</v>
@@ -29812,7 +29812,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>35.19620774827467</v>
       </c>
       <c r="Y32" t="n">
         <v>64.68340799244811</v>
@@ -30171,7 +30171,7 @@
         <v>64.68340799244814</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244726</v>
       </c>
       <c r="M37" t="n">
         <v>64.68340799244814</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.683407992448</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244814</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="41">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244805</v>
       </c>
       <c r="X44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.68340799244841</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.6834079924481</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.8201079258493</v>
+        <v>44.37851355747474</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.8201079258493</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8201079258493</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>258.7555762151239</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34793,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>16.14050760561297</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.8201079258493</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>16.8201079258493</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>16.14050760561297</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>16.8201079258493</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>16.8201079258493</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>44.37851355747473</v>
       </c>
       <c r="K5" t="n">
-        <v>231.347454323146</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="L5" t="n">
-        <v>222.0000824313017</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>231.347454323146</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="N5" t="n">
-        <v>231.347454323146</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,10 +34954,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>228.7289742036768</v>
+        <v>258.7555762151239</v>
       </c>
       <c r="P6" t="n">
-        <v>231.347454323146</v>
+        <v>427.0025062176388</v>
       </c>
       <c r="Q6" t="n">
-        <v>231.347454323146</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35097,22 +35097,22 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>231.347454323146</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>231.347454323146</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.347454323146</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>51.66182270660627</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="L8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>374.3890310734406</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35194,7 +35194,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5450011173478</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35413,7 +35413,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>694.586461052896</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35425,13 +35425,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>177.2616336175635</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>353.3782471555388</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.74564177992736</v>
+        <v>45.37049212775007</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466217</v>
+        <v>187.2591570944445</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161395</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O13" t="n">
-        <v>299.703279074133</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500302</v>
+        <v>238.898664697853</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943721</v>
+        <v>97.33562384219482</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,7 +35653,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>758.9573612342251</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35665,10 +35665,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>435.3350991233254</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>18.22667726606031</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992736</v>
+        <v>45.37049212775004</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466217</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161395</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O16" t="n">
-        <v>299.703279074133</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500302</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943721</v>
+        <v>97.33562384219479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>83.64156588249449</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35902,10 +35902,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>15.76347709059969</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3739449367924</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144862</v>
+        <v>45.37049212775004</v>
       </c>
       <c r="K19" t="n">
-        <v>220.796870338143</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076607</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M19" t="n">
-        <v>356.8693235889059</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656543</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>97.33562384219479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>438.0594924758088</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>735.5860740088352</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36203,22 +36203,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>33.15638339129833</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>491.2320453030856</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>45.37049212775004</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415515</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>97.33562384219479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>231.5501697958418</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36376,10 +36376,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>108.5673193121739</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194748</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144832</v>
+        <v>45.37049212775007</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>187.2591570944445</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>323.3316103452074</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>314.8212325207195</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>238.898664697853</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>97.33562384219482</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
         <v>543.5954556656965</v>
@@ -36914,7 +36914,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3739449367926</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36932,7 +36932,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,19 +37072,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>715.8082060630787</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
-        <v>760.7889056955737</v>
+        <v>384.3855001628908</v>
       </c>
       <c r="O32" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37151,7 +37151,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3739449367924</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,13 +37315,13 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955737</v>
+        <v>263.2724127265063</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P35" t="n">
-        <v>36.98522210078261</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37388,7 +37388,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3739449367924</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37467,7 +37467,7 @@
         <v>220.7968703381431</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076599</v>
       </c>
       <c r="M37" t="n">
         <v>356.869323588906</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37549,7 +37549,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>502.4303926571378</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37558,13 +37558,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.8444622371208</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144867</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K40" t="n">
-        <v>220.7968703381431</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L40" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M40" t="n">
         <v>356.869323588906</v>
@@ -37780,7 +37780,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>5.112653919290765</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37795,10 +37795,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>320.4239706924262</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37862,25 +37862,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>360.9878040976426</v>
+        <v>133.5425242304482</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>222.3061039491689</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>534.50171506985</v>
+        <v>361.3902794697644</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>461.3739449367924</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.90820537144862</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K46" t="n">
         <v>220.796870338143</v>
@@ -38193,7 +38193,7 @@
         <v>272.4363779415515</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.8733370858937</v>
+        <v>130.8733370858934</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
